--- a/数据整理/stocks/港股/06169-宇华教育.xlsx
+++ b/数据整理/stocks/港股/06169-宇华教育.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>241001</t>
+          <t>007207</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝海外中国混合(QDII)</t>
+          <t>华夏常阳三年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>52.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.30</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7617</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007207</t>
+          <t>002653</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏常阳三年定期开放混合</t>
+          <t>泰康沪港深精选灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>79.86</t>
+          <t>10.79</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2956</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002653</t>
+          <t>241001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰康沪港深精选灵活配置混合</t>
+          <t>华宝海外中国混合(QDII)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003580</t>
+          <t>006768</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰康沪港深价值优选灵活配置混合</t>
+          <t>华安沪港深优选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.73</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006768</t>
+          <t>003580</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安沪港深优选混合</t>
+          <t>泰康沪港深价值优选灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.80</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -688,15 +758,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>48.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>77.97</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.68</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2707</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -706,26 +786,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002653</t>
+          <t>010033</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康沪港深精选灵活配置混合</t>
+          <t>安信成长精选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>88.75</t>
+          <t>8.08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4121</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -734,25 +824,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003580</t>
+          <t>002653</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰康沪港深价值优选灵活配置混合</t>
+          <t>泰康沪港深精选灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>88.68</t>
+          <t>13.19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4115</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -762,26 +862,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010033</t>
+          <t>007109</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>安信成长精选混合A</t>
+          <t>南方沪港深核心优势混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>84.56</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>80.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1610</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -790,26 +900,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010034</t>
+          <t>160125</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>安信成长精选混合C</t>
+          <t>南方香港优选股票QDII-LOF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>84.56</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1437</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -818,26 +938,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007109</t>
+          <t>003580</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方沪港深核心优势混合</t>
+          <t>泰康沪港深价值优选灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>80.82</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -846,26 +976,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>160125</t>
+          <t>010034</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南方香港优选股票QDII-LOF</t>
+          <t>安信成长精选混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>82.53</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/06169-宇华教育.xlsx
+++ b/数据整理/stocks/港股/06169-宇华教育.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1011,4 +1012,592 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007207</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏常阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>52.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3139</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008371</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安汇智精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7336</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5504</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4101</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008290</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安现代生活混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2044</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010692</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>58.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1640</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1491</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0936</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010693</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>58.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>080006</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长盛环球行业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06169-宇华教育.xlsx
+++ b/数据整理/stocks/港股/06169-宇华教育.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1600,4 +1601,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06169-宇华教育.xlsx
+++ b/数据整理/stocks/港股/06169-宇华教育.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1733,4 +1734,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.94</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06169-宇华教育.xlsx
+++ b/数据整理/stocks/港股/06169-宇华教育.xlsx
@@ -1758,12 +1758,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/港股/06169-宇华教育.xlsx
+++ b/数据整理/stocks/港股/06169-宇华教育.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1742,7 +1743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1753,17 +1754,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1773,14 +1794,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1</v>
+          <t>014412</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3987</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1789,14 +1832,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>014413</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商核心竞争力混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1497</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>4.94</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4">
@@ -1805,14 +1938,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>3.52</v>
+        <v>4.94</v>
       </c>
     </row>
     <row r="5">
@@ -1821,13 +1954,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.22</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06169-宇华教育.xlsx
+++ b/数据整理/stocks/港股/06169-宇华教育.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.55</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>4.94</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>3.52</v>
+        <v>4.94</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.22</v>
       </c>
     </row>
@@ -632,22 +649,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.84</t>
+          <t>22.94</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.89</t>
+          <t>77.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3987</t>
+          <t>0.7020</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -670,22 +687,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.89</t>
+          <t>77.45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1497</t>
+          <t>0.1245</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -724,7 +741,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -754,36 +771,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008477</t>
+          <t>014412</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>安信价值驱动三年持有期混合</t>
+          <t>招商核心竞争力混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>8.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.90</t>
+          <t>91.89</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0777</t>
+          <t>0.3987</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -792,36 +809,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004249</t>
+          <t>014413</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>安信中国制造2025沪港深灵活配置混合</t>
+          <t>招商核心竞争力混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.31</t>
+          <t>91.89</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0269</t>
+          <t>0.1497</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -830,6 +847,138 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1417,7 +1566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1739,7 +1888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
